--- a/DATA_goal/Junction_Flooding_273.xlsx
+++ b/DATA_goal/Junction_Flooding_273.xlsx
@@ -471,11 +471,11 @@
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41705.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>8.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.91</v>
+        <v>0.59</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.67</v>
+        <v>0.27</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>18.05</v>
+        <v>1.81</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>13.17</v>
+        <v>1.32</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.17</v>
+        <v>0.52</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>17.57</v>
+        <v>1.76</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>10.08</v>
+        <v>1.01</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.74</v>
+        <v>0.47</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.34</v>
+        <v>0.73</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.92</v>
+        <v>0.29</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.69</v>
+        <v>0.67</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>8.58</v>
+        <v>0.86</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>6.2</v>
+        <v>0.62</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>94.45</v>
+        <v>9.44</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>18.33</v>
+        <v>1.83</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.18</v>
+        <v>0.62</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>11.16</v>
+        <v>1.12</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.76</v>
+        <v>0.68</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.23</v>
+        <v>0.52</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.83</v>
+        <v>0.58</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.02</v>
+        <v>0.2</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>15.49</v>
+        <v>1.55</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.06</v>
+        <v>0.31</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>7.72</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41705.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.73</v>
+        <v>0.47</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.47</v>
+        <v>0.35</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.22</v>
+        <v>0.12</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>7.94</v>
+        <v>0.79</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>15.32</v>
+        <v>1.53</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.86</v>
+        <v>0.59</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.97</v>
+        <v>0.3</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.12</v>
+        <v>0.31</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.33</v>
+        <v>0.43</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.79</v>
+        <v>0.48</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.91</v>
+        <v>0.39</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.12</v>
+        <v>0.51</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.73</v>
+        <v>0.37</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>52.2</v>
+        <v>5.22</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>11.03</v>
+        <v>1.1</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.61</v>
+        <v>0.36</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.95</v>
+        <v>0.4</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.66</v>
+        <v>0.87</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.19</v>
+        <v>0.32</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.05</v>
+        <v>0.31</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.74</v>
+        <v>0.47</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>14.4</v>
+        <v>1.44</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.78</v>
+        <v>0.18</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41705.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>16.82</v>
+        <v>1.68</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.58</v>
+        <v>1.26</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.25</v>
+        <v>0.13</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>36.95</v>
+        <v>3.69</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>29.9</v>
+        <v>2.99</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>12.79</v>
+        <v>1.28</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>47.77</v>
+        <v>4.78</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>20.44</v>
+        <v>2.04</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.13</v>
+        <v>1.31</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>14.84</v>
+        <v>1.48</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>15.85</v>
+        <v>1.58</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.31</v>
+        <v>1.33</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>18.66</v>
+        <v>1.87</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.38</v>
+        <v>1.14</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>195.24</v>
+        <v>19.52</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>37.11</v>
+        <v>3.71</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.28</v>
+        <v>1.23</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>24.72</v>
+        <v>2.47</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.25</v>
+        <v>1.32</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.76</v>
+        <v>0.18</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>24.59</v>
+        <v>2.46</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.85</v>
+        <v>1.09</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.36</v>
+        <v>1.14</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>15.7</v>
+        <v>1.57</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>43.43</v>
+        <v>4.34</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.81</v>
+        <v>0.68</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.36</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41705.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>23.39</v>
+        <v>2.34</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.53</v>
+        <v>1.75</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J5" s="4" t="n">
         <v>1.3</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>51.18</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>41.83</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>18.07</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>70.68000000000001</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>28.38</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>13.01</v>
-      </c>
       <c r="K5" s="4" t="n">
-        <v>18.58</v>
+        <v>1.86</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.54</v>
+        <v>2.05</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>21.86</v>
+        <v>2.19</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.09</v>
+        <v>0.61</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.42</v>
+        <v>1.84</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>26.08</v>
+        <v>2.61</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.54</v>
+        <v>1.55</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>273.09</v>
+        <v>27.31</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>51.51</v>
+        <v>5.15</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17</v>
+        <v>1.7</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>34.58</v>
+        <v>3.46</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.33</v>
+        <v>1.83</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.42</v>
+        <v>0.24</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>35.25</v>
+        <v>3.52</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.02</v>
+        <v>1.5</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.32</v>
+        <v>1.33</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.64</v>
+        <v>1.56</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.66</v>
+        <v>2.17</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>64.38</v>
+        <v>6.44</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>21.26</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41705.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>12.66</v>
+        <v>1.27</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>9.48</v>
+        <v>0.95</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>27.78</v>
+        <v>2.78</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>22.58</v>
+        <v>2.26</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>9.69</v>
+        <v>0.97</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>42.17</v>
+        <v>4.22</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>15.37</v>
+        <v>1.54</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>7.14</v>
+        <v>0.71</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>9.93</v>
+        <v>0.99</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>11.15</v>
+        <v>1.12</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>11.9</v>
+        <v>1.19</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.35</v>
+        <v>0.34</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>14.1</v>
+        <v>1.41</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>8.52</v>
+        <v>0.85</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="S6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AG6" s="4" t="n">
         <v>0.51</v>
       </c>
-      <c r="T6" s="4" t="n">
-        <v>144.91</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>28.07</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>20.53</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>38.55</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.14</v>
-      </c>
       <c r="AH6" s="4" t="n">
-        <v>11.54</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41705.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>21.52</v>
+        <v>2.15</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>16.14</v>
+        <v>1.61</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>47.02</v>
+        <v>4.7</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>38.55</v>
+        <v>3.85</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>16.7</v>
+        <v>1.67</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>64.75</v>
+        <v>6.48</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>26.09</v>
+        <v>2.61</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>11.92</v>
+        <v>1.19</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>17.18</v>
+        <v>1.72</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>18.87</v>
+        <v>1.89</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>20.05</v>
+        <v>2.01</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>5.55</v>
+        <v>0.55</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>16.92</v>
+        <v>1.69</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>24.01</v>
+        <v>2.4</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>14.21</v>
+        <v>1.42</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>250.2</v>
+        <v>25.02</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>47.28</v>
+        <v>4.73</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>31.82</v>
+        <v>3.18</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>16.83</v>
+        <v>1.68</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>32.08</v>
+        <v>3.21</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>13.79</v>
+        <v>1.38</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>14.34</v>
+        <v>1.43</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>19.87</v>
+        <v>1.99</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>58.8</v>
+        <v>5.88</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>19.52</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41705.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>18.36</v>
+        <v>1.84</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>13.77</v>
+        <v>1.38</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>40.12</v>
+        <v>4.01</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>32.89</v>
+        <v>3.29</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>14.25</v>
+        <v>1.43</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>57.54</v>
+        <v>5.75</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>22.26</v>
+        <v>2.23</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>10.19</v>
+        <v>1.02</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>14.65</v>
+        <v>1.47</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>16.1</v>
+        <v>1.61</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>17.11</v>
+        <v>1.71</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.73</v>
+        <v>0.47</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>14.44</v>
+        <v>1.44</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>20.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>12.13</v>
+        <v>1.21</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>212.43</v>
+        <v>21.24</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>40.41</v>
+        <v>4.04</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>13.33</v>
+        <v>1.33</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>27.19</v>
+        <v>2.72</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>14.36</v>
+        <v>1.44</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.9</v>
+        <v>0.19</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>28.16</v>
+        <v>2.82</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>11.77</v>
+        <v>1.18</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>12.24</v>
+        <v>1.22</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>16.95</v>
+        <v>1.7</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>52.36</v>
+        <v>5.24</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>7.51</v>
+        <v>0.75</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>16.66</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41705.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>7.51</v>
+        <v>0.75</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>5.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>16.51</v>
+        <v>1.65</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>13.4</v>
+        <v>1.34</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>5.74</v>
+        <v>0.57</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>27.35</v>
+        <v>2.74</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>4.29</v>
+        <v>0.43</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>5.87</v>
+        <v>0.59</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>6.63</v>
+        <v>0.66</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>7.08</v>
+        <v>0.71</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>5.07</v>
+        <v>0.51</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>83.11</v>
+        <v>8.31</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>16.78</v>
+        <v>1.68</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>11.23</v>
+        <v>1.12</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>5.93</v>
+        <v>0.59</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>13.1</v>
+        <v>1.31</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>4.84</v>
+        <v>0.48</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>4.32</v>
+        <v>0.43</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>5.07</v>
+        <v>0.51</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>6.98</v>
+        <v>0.7</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>25.14</v>
+        <v>2.51</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>3.05</v>
+        <v>0.3</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41705.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>20.59</v>
+        <v>2.06</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>15.45</v>
+        <v>1.54</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>44.93</v>
+        <v>4.49</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>36.93</v>
+        <v>3.69</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>16.05</v>
+        <v>1.6</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>60.39</v>
+        <v>6.04</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>24.95</v>
+        <v>2.5</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>11.35</v>
+        <v>1.14</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>16.52</v>
+        <v>1.65</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>18.03</v>
+        <v>1.8</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>19.14</v>
+        <v>1.91</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.27</v>
+        <v>0.53</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>16.17</v>
+        <v>1.62</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>22.99</v>
+        <v>2.3</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>238.74</v>
+        <v>23.87</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>45.14</v>
+        <v>4.51</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>14.92</v>
+        <v>1.49</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>30.44</v>
+        <v>3.04</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>16.07</v>
+        <v>1.61</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.12</v>
+        <v>0.21</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>30.04</v>
+        <v>3</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>13.18</v>
+        <v>1.32</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>11.63</v>
+        <v>1.16</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>18.97</v>
+        <v>1.9</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>54.73</v>
+        <v>5.47</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>8.44</v>
+        <v>0.84</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>18.66</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_273.xlsx
+++ b/DATA_goal/Junction_Flooding_273.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,34 +444,34 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41705.34027777778</v>
+        <v>44954.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>2.16</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.59</v>
+        <v>1.45</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.27</v>
+        <v>0.45</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.81</v>
+        <v>4.54</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.32</v>
+        <v>3.75</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.52</v>
+        <v>1.7</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.76</v>
+        <v>5.57</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.01</v>
+        <v>2.62</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.47</v>
+        <v>1.11</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.55</v>
+        <v>1.7</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.73</v>
+        <v>1.8</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.89</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.29</v>
+        <v>0.54</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.67</v>
+        <v>1.69</v>
       </c>
       <c r="P2" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>25.02</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="AG2" s="4" t="n">
         <v>0.86</v>
       </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>0.31</v>
-      </c>
       <c r="AH2" s="4" t="n">
-        <v>0.77</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41705.34722222222</v>
+        <v>44954.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.47</v>
+        <v>2.07</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.35</v>
+        <v>1.48</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.12</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>5.22</v>
+        <v>23.88</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.1</v>
+        <v>4.52</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.36</v>
+        <v>1.49</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>3.02</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.23</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.87</v>
+        <v>3.04</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.32</v>
+        <v>1.32</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.31</v>
+        <v>1.19</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.35</v>
+        <v>1.39</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.47</v>
+        <v>1.86</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.44</v>
+        <v>5.7</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.18</v>
+        <v>0.83</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.45</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41705.35416666666</v>
+        <v>44954.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.68</v>
+        <v>1.92</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.69</v>
+        <v>4.14</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.99</v>
+        <v>3.42</v>
       </c>
       <c r="G4" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="Q4" s="4" t="n">
         <v>1.28</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>1.14</v>
-      </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>19.52</v>
+        <v>22.16</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.71</v>
+        <v>4.21</v>
       </c>
       <c r="V4" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AA4" s="4" t="n">
         <v>1.23</v>
       </c>
-      <c r="W4" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>1.09</v>
-      </c>
       <c r="AB4" s="4" t="n">
-        <v>0.97</v>
+        <v>1.1</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.57</v>
+        <v>1.74</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.34</v>
+        <v>5.4</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.68</v>
+        <v>0.78</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.54</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41705.36111111111</v>
+        <v>44954.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.75</v>
+        <v>0.72</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.12</v>
+        <v>2.16</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.18</v>
+        <v>1.79</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.81</v>
+        <v>0.79</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>7.07</v>
+        <v>3.41</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.84</v>
+        <v>1.22</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.3</v>
+        <v>0.53</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.86</v>
+        <v>0.8</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.05</v>
+        <v>0.88</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.19</v>
+        <v>0.91</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.25</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.84</v>
+        <v>0.79</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.61</v>
+        <v>1.12</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.55</v>
+        <v>0.68</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>27.31</v>
+        <v>11.29</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.15</v>
+        <v>2.22</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.7</v>
+        <v>0.73</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.46</v>
+        <v>1.48</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.83</v>
+        <v>0.79</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.24</v>
+        <v>0.11</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.52</v>
+        <v>1.59</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.5</v>
+        <v>0.64</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.33</v>
+        <v>0.58</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.56</v>
+        <v>0.68</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.17</v>
+        <v>0.91</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.44</v>
+        <v>3.1</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.13</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41705.36805555555</v>
+        <v>44954.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.27</v>
+        <v>11.05</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.95</v>
+        <v>8.02</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E6" s="4" t="n">
+        <v>23.78</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>19.66</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>34.15</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>13.38</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="N6" s="4" t="n">
         <v>2.78</v>
       </c>
-      <c r="F6" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.34</v>
-      </c>
       <c r="O6" s="4" t="n">
-        <v>1</v>
+        <v>8.65</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.41</v>
+        <v>12.25</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.85</v>
+        <v>7.37</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.03</v>
+        <v>0.64</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>14.49</v>
+        <v>124.29</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>2.81</v>
+        <v>24.18</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.92</v>
+        <v>7.98</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.88</v>
+        <v>16.15</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1</v>
+        <v>8.65</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.13</v>
+        <v>1.22</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.05</v>
+        <v>16.31</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.82</v>
+        <v>7.05</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.73</v>
+        <v>6.32</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.85</v>
+        <v>7.4</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.18</v>
+        <v>10.07</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>3.85</v>
+        <v>30.86</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.51</v>
+        <v>4.45</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41705.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>25.02</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41705.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>21.24</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41705.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41705.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>23.87</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.87</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41705.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>19.54</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>14.66</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>42.64</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>35.06</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>15.24</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>60.48</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>23.68</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>15.68</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>17.11</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>18.16</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>15.34</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>21.83</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>226.17</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>42.92</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>14.16</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>28.95</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>15.26</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>29.63</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>17.7</v>
+        <v>9.98</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_273.xlsx
+++ b/DATA_goal/Junction_Flooding_273.xlsx
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44954.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.16</v>
+        <v>21.62</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.45</v>
+        <v>14.46</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.46</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.54</v>
+        <v>45.36</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.75</v>
+        <v>37.51</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.7</v>
+        <v>17.01</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.57</v>
+        <v>55.7</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.62</v>
+        <v>26.18</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.07</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.7</v>
+        <v>17.02</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.8</v>
+        <v>18.05</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.89</v>
+        <v>18.88</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.54</v>
+        <v>5.43</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.37</v>
+        <v>23.75</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.42</v>
+        <v>14.24</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.02</v>
+        <v>250.17</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.71</v>
+        <v>47.09</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.11</v>
+        <v>31.15</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.62</v>
+        <v>16.25</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.41</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.77</v>
+        <v>27.66</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.38</v>
+        <v>13.79</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.75</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.45</v>
+        <v>14.55</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.84</v>
+        <v>18.41</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.92</v>
+        <v>49.22</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.95</v>
+        <v>19.52</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44954.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.07</v>
+        <v>20.66</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.48</v>
+        <v>14.77</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.99</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.43</v>
+        <v>44.28</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.66</v>
+        <v>36.61</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.63</v>
+        <v>16.26</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.29</v>
+        <v>62.91</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.5</v>
+        <v>25.01</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.09</v>
+        <v>10.91</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.64</v>
+        <v>16.41</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.78</v>
+        <v>17.84</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.87</v>
+        <v>18.67</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.19</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.62</v>
+        <v>16.17</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.29</v>
+        <v>22.88</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.74</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.65</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>23.88</v>
+        <v>238.76</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.52</v>
+        <v>45.23</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.49</v>
+        <v>14.92</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.02</v>
+        <v>30.16</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.6</v>
+        <v>16.03</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.27</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.04</v>
+        <v>30.37</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.18</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.19</v>
+        <v>11.91</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.87</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.86</v>
+        <v>18.57</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.7</v>
+        <v>57.02</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.32</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.87</v>
+        <v>18.66</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44954.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.92</v>
+        <v>19.22</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.14</v>
+        <v>41.37</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.42</v>
+        <v>34.21</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.51</v>
+        <v>15.12</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.96</v>
+        <v>59.57</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.33</v>
+        <v>23.27</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.24</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.53</v>
+        <v>15.33</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.71</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.75</v>
+        <v>17.5</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.83</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.5</v>
+        <v>15.04</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.13</v>
+        <v>21.34</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.75</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>22.16</v>
+        <v>221.59</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.21</v>
+        <v>42.08</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.82</v>
+        <v>28.16</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.5</v>
+        <v>14.98</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.09</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.86</v>
+        <v>28.58</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.26</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.1</v>
+        <v>10.98</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.85</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.74</v>
+        <v>17.45</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.4</v>
+        <v>53.96</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44954.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.09</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.23</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.16</v>
+        <v>21.63</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.79</v>
+        <v>17.88</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.94</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.41</v>
+        <v>34.08</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.22</v>
+        <v>12.22</v>
       </c>
       <c r="J5" s="4" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.53</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>11.29</v>
+        <v>112.86</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.22</v>
+        <v>22.2</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.77</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.91</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.59</v>
+        <v>15.93</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.44</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.8</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.15</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.1</v>
+        <v>30.99</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_273.xlsx
+++ b/DATA_goal/Junction_Flooding_273.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,91 +655,91 @@
         <v>44954.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>21.62</v>
+        <v>21.619</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>14.46</v>
+        <v>14.458</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.46</v>
+        <v>4.456</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>45.36</v>
+        <v>45.361</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>37.51</v>
+        <v>37.513</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.01</v>
+        <v>17.013</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>55.7</v>
+        <v>55.703</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>26.18</v>
+        <v>26.178</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.07</v>
+        <v>11.065</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.02</v>
+        <v>17.024</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.05</v>
+        <v>18.048</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>18.88</v>
+        <v>18.877</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.43</v>
+        <v>5.432</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.92</v>
+        <v>16.918</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>23.75</v>
+        <v>23.745</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.24</v>
+        <v>14.242</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.74</v>
+        <v>3.744</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>2.457</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>250.17</v>
+        <v>250.169</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>47.09</v>
+        <v>47.091</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.62</v>
+        <v>15.616</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>31.15</v>
+        <v>31.148</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>16.25</v>
+        <v>16.247</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.41</v>
+        <v>2.407</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>27.66</v>
+        <v>27.662</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.79</v>
+        <v>13.794</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.75</v>
+        <v>12.753</v>
       </c>
       <c r="AC2" s="4" t="n">
         <v>14.55</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>18.41</v>
+        <v>18.409</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>3.64</v>
@@ -748,10 +748,10 @@
         <v>49.22</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>8.641</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>19.52</v>
+        <v>19.523</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44954.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>20.66</v>
+        <v>20.658</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>14.77</v>
+        <v>14.766</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.99</v>
+        <v>1.994</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>44.28</v>
+        <v>44.275</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>36.61</v>
+        <v>36.614</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>16.26</v>
+        <v>16.258</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>62.91</v>
+        <v>62.914</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>25.01</v>
+        <v>25.014</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.91</v>
+        <v>10.914</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16.41</v>
+        <v>16.415</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>17.84</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>18.67</v>
+        <v>18.675</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.19</v>
+        <v>5.193</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.17</v>
+        <v>16.166</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>22.88</v>
+        <v>22.881</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>13.74</v>
+        <v>13.741</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.65</v>
+        <v>1.649</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.2</v>
+        <v>1.196</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>238.76</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>45.23</v>
+        <v>45.233</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>14.92</v>
+        <v>14.922</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>30.16</v>
+        <v>30.161</v>
       </c>
       <c r="X3" s="4" t="n">
         <v>16.03</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.27</v>
+        <v>2.267</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>30.37</v>
+        <v>30.372</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.18</v>
+        <v>13.181</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.91</v>
+        <v>11.911</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>13.87</v>
+        <v>13.874</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>18.57</v>
+        <v>18.566</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>57.02</v>
+        <v>57.017</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.32</v>
+        <v>8.321</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>18.66</v>
+        <v>18.656</v>
       </c>
     </row>
     <row r="4">
@@ -863,46 +863,46 @@
         <v>44954.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>19.22</v>
+        <v>19.217</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.96</v>
+        <v>13.958</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.43</v>
+        <v>1.431</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>41.37</v>
+        <v>41.374</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>34.21</v>
+        <v>34.209</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15.12</v>
+        <v>15.124</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>59.57</v>
+        <v>59.569</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>23.27</v>
+        <v>23.269</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.24</v>
+        <v>10.243</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>15.33</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.71</v>
+        <v>16.707</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>17.5</v>
+        <v>17.504</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.83</v>
+        <v>4.831</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>15.04</v>
+        <v>15.038</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>21.34</v>
@@ -911,55 +911,55 @@
         <v>12.75</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.1</v>
+        <v>1.102</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.9</v>
+        <v>0.899</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>221.59</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>42.08</v>
+        <v>42.081</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.88</v>
+        <v>13.881</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>28.16</v>
+        <v>28.157</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.98</v>
+        <v>14.982</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.09</v>
+        <v>2.092</v>
       </c>
       <c r="Z4" s="4" t="n">
         <v>28.58</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.26</v>
+        <v>12.261</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.98</v>
+        <v>10.985</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.85</v>
+        <v>12.853</v>
       </c>
       <c r="AD4" s="4" t="n">
         <v>17.45</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>53.96</v>
+        <v>53.958</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>7.77</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>17.35</v>
+        <v>17.355</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>9.109999999999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44954.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>23.78</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>19.66</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>34.15</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.38</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>124.29</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>24.18</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>16.15</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>30.86</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.98</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_273.xlsx
+++ b/DATA_goal/Junction_Flooding_273.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44954.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.09</v>
+        <v>10.089</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.23</v>
+        <v>7.228</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.902</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>21.63</v>
+        <v>21.626</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>17.88</v>
+        <v>17.877</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>7.94</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>34.08</v>
+        <v>34.076</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12.22</v>
+        <v>12.216</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.34</v>
+        <v>5.343</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.97</v>
+        <v>7.965</v>
       </c>
       <c r="L5" s="4" t="n">
+        <v>8.784000000000001</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>9.145</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>2.539</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>7.895</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>11.181</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>6.785</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>112.863</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>22.195</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>7.288</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>14.765</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>7.909</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>1.137</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>15.931</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>6.437</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>5.818</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>6.797</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>9.148999999999999</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>30.993</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>4.036</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>9.112</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44954.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>23.78</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>19.66</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>34.15</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>13.38</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="K6" s="4" t="n">
         <v>8.779999999999999</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>112.86</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>14.77</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>30.99</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>9.109999999999999</v>
+      <c r="L6" s="4" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>124.29</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>24.18</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>30.86</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>9.98</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_273.xlsx
+++ b/DATA_goal/Junction_Flooding_273.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44954.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.089</v>
+        <v>10.09</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.228</v>
+        <v>7.23</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.902</v>
+        <v>0.9</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>21.626</v>
+        <v>21.63</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>17.877</v>
+        <v>17.88</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>7.94</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>34.076</v>
+        <v>34.08</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12.216</v>
+        <v>12.22</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.343</v>
+        <v>5.34</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.965</v>
+        <v>7.97</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.784000000000001</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.145</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.539</v>
+        <v>2.54</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.895</v>
+        <v>7.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.181</v>
+        <v>11.18</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.785</v>
+        <v>6.78</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.776</v>
+        <v>0.78</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.525</v>
+        <v>0.53</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>112.863</v>
+        <v>112.86</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>22.195</v>
+        <v>22.2</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.288</v>
+        <v>7.29</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>14.765</v>
+        <v>14.77</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.909</v>
+        <v>7.91</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.137</v>
+        <v>1.14</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.931</v>
+        <v>15.93</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.437</v>
+        <v>6.44</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.818</v>
+        <v>5.82</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.797</v>
+        <v>6.8</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.148999999999999</v>
+        <v>9.15</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>30.993</v>
+        <v>30.99</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.036</v>
+        <v>4.04</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.112</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44954.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>23.78</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>19.66</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>34.15</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.38</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>124.29</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>24.18</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>16.15</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>30.86</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.98</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
   </sheetData>
